--- a/docment/外部設計書/新宝探しワイヤフレーム.xlsx
+++ b/docment/外部設計書/新宝探しワイヤフレーム.xlsx
@@ -340,25 +340,22 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -381,16 +378,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -399,8 +396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1668780" y="2209800"/>
-          <a:ext cx="1203960" cy="327660"/>
+          <a:off x="762000" y="2164080"/>
+          <a:ext cx="815340" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,71 +427,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>リセット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="350520"/>
-          <a:ext cx="1150620" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ヒント</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -542,6 +474,63 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="2164080"/>
+          <a:ext cx="815340" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヒント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -837,7 +826,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E12"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
